--- a/02_MasterWifoMannheim/99_Backup/Course55.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course55.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_2B59D2BFD3D0DB4B639A2011593B08B04DD7FB46" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CC3EEF3-9D40-4916-B226-A0F5F6469A72}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_2B59D2BFD3D05905DB9B3611597130776771F886" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{281277CE-85EC-4903-B7E8-5F0A89C57768}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="3210" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22365" yWindow="1500" windowWidth="21600" windowHeight="14070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,6 +40,18 @@
     <t>Die Studierenden lernen konkrete Konzernrechnungslegung kennen. Konzernrechnungslegung zu entwickeln. verschiedene Rechnungslegungssysteme vergleichend zu beurteilen.</t>
   </si>
   <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>Accounting and Taxation (AAT)</t>
+  </si>
+  <si>
+    <t>Not Taken</t>
+  </si>
+  <si>
+    <t>ACC 513</t>
+  </si>
+  <si>
     <t>Anmeldepflicht</t>
   </si>
   <si>
@@ -76,10 +88,7 @@
     <t>1 Semester</t>
   </si>
   <si>
-    <t>Angebotsturnus</t>
-  </si>
-  <si>
-    <t>FWS</t>
+    <t>Offering</t>
   </si>
   <si>
     <t>Sprache</t>
@@ -103,16 +112,7 @@
     <t>M.Sc. MMM, M.Sc. Wipäd, M.Sc. Wirt.Inf., M.A. K&amp;W, M.Sc. VWL, LL.M.</t>
   </si>
   <si>
-    <t>Not Taken</t>
-  </si>
-  <si>
-    <t>ACC 513</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Accounting and Taxation (AAT)</t>
+    <t>Continuously</t>
   </si>
 </sst>
 </file>
@@ -479,7 +479,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,105 +518,105 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
